--- a/out/production/java1/Product.xlsx
+++ b/out/production/java1/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java1\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A59CA0-9C89-4050-A530-04BB766ECE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE6D26-AA2B-45B1-9828-DF2B7E276570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,11 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Apple iPad Pro </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.9英寸平板电脑 2020年新款(128G WLAN版/全面屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple iPhone 13 Pro </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>7899</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
